--- a/src/excel/verbos.xlsx
+++ b/src/excel/verbos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DETPC\Documents\JavaVSCodeProjects\LecturaImagenes\ReadingImages\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36664528-F332-4B83-8A77-8C9C318065AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5111108F-5BC6-4A47-8277-9E7AAA64EABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9B26DA58-1CB4-43D6-93BA-F9C74C794D08}"/>
   </bookViews>
@@ -5235,9 +5235,6 @@
     <t>accursed</t>
   </si>
   <si>
-    <t>chilling stitching stunning womb unraveling lame  snip snippet scold</t>
-  </si>
-  <si>
     <t>chilling</t>
   </si>
   <si>
@@ -5269,6 +5266,9 @@
   </si>
   <si>
     <t>overcoat</t>
+  </si>
+  <si>
+    <t>chilling stitching stunning womb lame  snip snippet</t>
   </si>
 </sst>
 </file>
@@ -5667,8 +5667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28A8BA1-FFA9-4882-9773-61B0C1E5F29D}">
   <dimension ref="A1:XFD696"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D511" workbookViewId="0">
-      <selection activeCell="H524" sqref="H524"/>
+    <sheetView tabSelected="1" topLeftCell="D630" workbookViewId="0">
+      <selection activeCell="P512" sqref="P512:P635"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13747,7 +13747,7 @@
         <v>1723</v>
       </c>
       <c r="P635" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="Q635" t="s">
         <v>1623</v>
@@ -13780,7 +13780,7 @@
         <v>1510</v>
       </c>
       <c r="O638" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="Q638" t="s">
         <v>1633</v>
@@ -13791,7 +13791,7 @@
         <v>1515</v>
       </c>
       <c r="O639" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="Q639" t="s">
         <v>1634</v>
@@ -13802,7 +13802,7 @@
         <v>1517</v>
       </c>
       <c r="O640" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="Q640" t="s">
         <v>1639</v>
@@ -14094,12 +14094,12 @@
         <v>1603</v>
       </c>
       <c r="Q676" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="677" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E677" t="s">
-        <v>1733</v>
+        <v>1744</v>
       </c>
       <c r="N677" t="s">
         <v>1659</v>
@@ -14113,7 +14113,7 @@
         <v>1668</v>
       </c>
       <c r="Q678" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="679" spans="5:17" x14ac:dyDescent="0.25">
@@ -14121,7 +14121,7 @@
         <v>1671</v>
       </c>
       <c r="Q679" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="680" spans="5:17" x14ac:dyDescent="0.25">
@@ -14191,22 +14191,22 @@
     </row>
     <row r="693" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N693" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="694" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N694" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="695" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N695" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="696" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N696" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
   </sheetData>

--- a/src/excel/verbos.xlsx
+++ b/src/excel/verbos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DETPC\Documents\JavaVSCodeProjects\LecturaImagenes\ReadingImages\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5111108F-5BC6-4A47-8277-9E7AAA64EABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23A8FEB-5FC6-4E57-BEAE-7C5C5E1DFF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9B26DA58-1CB4-43D6-93BA-F9C74C794D08}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="1745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="1747">
   <si>
     <t>español</t>
   </si>
@@ -5268,7 +5268,13 @@
     <t>overcoat</t>
   </si>
   <si>
-    <t>chilling stitching stunning womb lame  snip snippet</t>
+    <t>ABSTRACTOS</t>
+  </si>
+  <si>
+    <t>chilling stitching stunning womb lame  snip snippet bench will</t>
+  </si>
+  <si>
+    <t>likilihood</t>
   </si>
 </sst>
 </file>
@@ -5304,7 +5310,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5314,6 +5320,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5345,12 +5357,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5667,8 +5681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28A8BA1-FFA9-4882-9773-61B0C1E5F29D}">
   <dimension ref="A1:XFD696"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D630" workbookViewId="0">
-      <selection activeCell="P512" sqref="P512:P635"/>
+    <sheetView tabSelected="1" topLeftCell="D672" workbookViewId="0">
+      <selection activeCell="E679" sqref="E679"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11812,6 +11826,9 @@
       </c>
     </row>
     <row r="511" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D511" t="s">
+        <v>1744</v>
+      </c>
       <c r="N511" s="3" t="s">
         <v>1164</v>
       </c>
@@ -11826,16 +11843,16 @@
       </c>
     </row>
     <row r="512" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D512" t="s">
+      <c r="D512" s="5" t="s">
         <v>1154</v>
       </c>
       <c r="O512" t="s">
         <v>1109</v>
       </c>
-      <c r="P512" t="s">
+      <c r="P512" s="5" t="s">
         <v>1168</v>
       </c>
-      <c r="Q512" t="s">
+      <c r="Q512" s="5" t="s">
         <v>1106</v>
       </c>
       <c r="R512" t="s">
@@ -11843,16 +11860,16 @@
       </c>
     </row>
     <row r="513" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D513" t="s">
+      <c r="D513" s="5" t="s">
         <v>1117</v>
       </c>
       <c r="O513" t="s">
         <v>1115</v>
       </c>
-      <c r="P513" t="s">
+      <c r="P513" s="5" t="s">
         <v>1170</v>
       </c>
-      <c r="Q513" t="s">
+      <c r="Q513" s="5" t="s">
         <v>1122</v>
       </c>
       <c r="R513" t="s">
@@ -11860,16 +11877,16 @@
       </c>
     </row>
     <row r="514" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D514" t="s">
+      <c r="D514" s="5" t="s">
         <v>1118</v>
       </c>
       <c r="O514" t="s">
         <v>1126</v>
       </c>
-      <c r="P514" t="s">
+      <c r="P514" s="5" t="s">
         <v>1173</v>
       </c>
-      <c r="Q514" t="s">
+      <c r="Q514" s="5" t="s">
         <v>74</v>
       </c>
       <c r="R514" t="s">
@@ -11877,16 +11894,16 @@
       </c>
     </row>
     <row r="515" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D515" t="s">
+      <c r="D515" s="5" t="s">
         <v>1120</v>
       </c>
       <c r="O515" t="s">
         <v>1131</v>
       </c>
-      <c r="P515" t="s">
+      <c r="P515" s="5" t="s">
         <v>1175</v>
       </c>
-      <c r="Q515" t="s">
+      <c r="Q515" s="5" t="s">
         <v>1136</v>
       </c>
       <c r="R515" t="s">
@@ -11894,16 +11911,16 @@
       </c>
     </row>
     <row r="516" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D516" t="s">
+      <c r="D516" s="5" t="s">
         <v>1121</v>
       </c>
       <c r="O516" t="s">
         <v>1132</v>
       </c>
-      <c r="P516" t="s">
+      <c r="P516" s="5" t="s">
         <v>1179</v>
       </c>
-      <c r="Q516" t="s">
+      <c r="Q516" s="5" t="s">
         <v>1137</v>
       </c>
       <c r="R516" t="s">
@@ -11911,16 +11928,16 @@
       </c>
     </row>
     <row r="517" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D517" t="s">
+      <c r="D517" s="5" t="s">
         <v>1123</v>
       </c>
       <c r="O517" t="s">
         <v>1138</v>
       </c>
-      <c r="P517" t="s">
+      <c r="P517" s="5" t="s">
         <v>1182</v>
       </c>
-      <c r="Q517" t="s">
+      <c r="Q517" s="5" t="s">
         <v>1143</v>
       </c>
       <c r="R517" t="s">
@@ -11928,16 +11945,16 @@
       </c>
     </row>
     <row r="518" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D518" t="s">
+      <c r="D518" s="5" t="s">
         <v>1124</v>
       </c>
       <c r="O518" s="4" t="s">
         <v>1145</v>
       </c>
-      <c r="P518" t="s">
+      <c r="P518" s="5" t="s">
         <v>1184</v>
       </c>
-      <c r="Q518" t="s">
+      <c r="Q518" s="5" t="s">
         <v>1150</v>
       </c>
       <c r="R518" t="s">
@@ -11945,16 +11962,16 @@
       </c>
     </row>
     <row r="519" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D519" t="s">
+      <c r="D519" s="5" t="s">
         <v>1130</v>
       </c>
       <c r="O519" t="s">
         <v>1147</v>
       </c>
-      <c r="P519" t="s">
+      <c r="P519" s="5" t="s">
         <v>1186</v>
       </c>
-      <c r="Q519" t="s">
+      <c r="Q519" s="5" t="s">
         <v>1152</v>
       </c>
       <c r="R519" t="s">
@@ -11962,16 +11979,16 @@
       </c>
     </row>
     <row r="520" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D520" t="s">
+      <c r="D520" s="5" t="s">
         <v>1133</v>
       </c>
       <c r="O520" t="s">
         <v>1151</v>
       </c>
-      <c r="P520" t="s">
+      <c r="P520" s="5" t="s">
         <v>1187</v>
       </c>
-      <c r="Q520" t="s">
+      <c r="Q520" s="5" t="s">
         <v>1153</v>
       </c>
       <c r="R520" t="s">
@@ -11979,16 +11996,16 @@
       </c>
     </row>
     <row r="521" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D521" t="s">
+      <c r="D521" s="5" t="s">
         <v>1140</v>
       </c>
       <c r="O521" t="s">
         <v>1135</v>
       </c>
-      <c r="P521" t="s">
+      <c r="P521" s="5" t="s">
         <v>1191</v>
       </c>
-      <c r="Q521" t="s">
+      <c r="Q521" s="5" t="s">
         <v>1158</v>
       </c>
       <c r="R521" t="s">
@@ -11996,16 +12013,16 @@
       </c>
     </row>
     <row r="522" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D522" t="s">
+      <c r="D522" s="5" t="s">
         <v>1146</v>
       </c>
       <c r="O522" t="s">
         <v>1139</v>
       </c>
-      <c r="P522" t="s">
+      <c r="P522" s="5" t="s">
         <v>1192</v>
       </c>
-      <c r="Q522" t="s">
+      <c r="Q522" s="5" t="s">
         <v>1162</v>
       </c>
       <c r="R522" t="s">
@@ -12013,16 +12030,16 @@
       </c>
     </row>
     <row r="523" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D523" t="s">
+      <c r="D523" s="5" t="s">
         <v>1156</v>
       </c>
       <c r="O523" t="s">
         <v>1167</v>
       </c>
-      <c r="P523" t="s">
+      <c r="P523" s="5" t="s">
         <v>1194</v>
       </c>
-      <c r="Q523" t="s">
+      <c r="Q523" s="5" t="s">
         <v>1112</v>
       </c>
       <c r="R523" t="s">
@@ -12030,16 +12047,16 @@
       </c>
     </row>
     <row r="524" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D524" t="s">
+      <c r="D524" s="5" t="s">
         <v>1159</v>
       </c>
       <c r="O524" t="s">
         <v>342</v>
       </c>
-      <c r="P524" t="s">
+      <c r="P524" s="5" t="s">
         <v>1196</v>
       </c>
-      <c r="Q524" t="s">
+      <c r="Q524" s="5" t="s">
         <v>1166</v>
       </c>
       <c r="R524" t="s">
@@ -12047,16 +12064,16 @@
       </c>
     </row>
     <row r="525" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D525" t="s">
+      <c r="D525" s="5" t="s">
         <v>1161</v>
       </c>
       <c r="O525" t="s">
         <v>1193</v>
       </c>
-      <c r="P525" t="s">
+      <c r="P525" s="5" t="s">
         <v>1197</v>
       </c>
-      <c r="Q525" t="s">
+      <c r="Q525" s="5" t="s">
         <v>1169</v>
       </c>
       <c r="R525" t="s">
@@ -12064,16 +12081,16 @@
       </c>
     </row>
     <row r="526" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D526" t="s">
+      <c r="D526" s="5" t="s">
         <v>1163</v>
       </c>
       <c r="O526" t="s">
         <v>1198</v>
       </c>
-      <c r="P526" t="s">
+      <c r="P526" s="5" t="s">
         <v>1208</v>
       </c>
-      <c r="Q526" t="s">
+      <c r="Q526" s="5" t="s">
         <v>1172</v>
       </c>
       <c r="R526" t="s">
@@ -12081,16 +12098,16 @@
       </c>
     </row>
     <row r="527" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D527" t="s">
+      <c r="D527" s="5" t="s">
         <v>1108</v>
       </c>
       <c r="O527" t="s">
         <v>1203</v>
       </c>
-      <c r="P527" t="s">
+      <c r="P527" s="5" t="s">
         <v>1227</v>
       </c>
-      <c r="Q527" t="s">
+      <c r="Q527" s="5" t="s">
         <v>1176</v>
       </c>
       <c r="R527" t="s">
@@ -12098,19 +12115,19 @@
       </c>
     </row>
     <row r="528" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D528" t="s">
+      <c r="D528" s="5" t="s">
         <v>1144</v>
       </c>
-      <c r="N528" t="s">
+      <c r="N528" s="5" t="s">
         <v>1219</v>
       </c>
       <c r="O528" t="s">
         <v>1207</v>
       </c>
-      <c r="P528" t="s">
+      <c r="P528" s="5" t="s">
         <v>1228</v>
       </c>
-      <c r="Q528" t="s">
+      <c r="Q528" s="5" t="s">
         <v>1177</v>
       </c>
       <c r="R528" t="s">
@@ -12118,22 +12135,22 @@
       </c>
     </row>
     <row r="529" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D529" t="s">
+      <c r="D529" s="5" t="s">
         <v>1157</v>
       </c>
       <c r="G529" t="s">
         <v>1165</v>
       </c>
-      <c r="N529" t="s">
+      <c r="N529" s="5" t="s">
         <v>1220</v>
       </c>
       <c r="O529" t="s">
         <v>1226</v>
       </c>
-      <c r="P529" t="s">
+      <c r="P529" s="5" t="s">
         <v>1229</v>
       </c>
-      <c r="Q529" t="s">
+      <c r="Q529" s="5" t="s">
         <v>1180</v>
       </c>
       <c r="R529" t="s">
@@ -12141,22 +12158,22 @@
       </c>
     </row>
     <row r="530" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D530" t="s">
+      <c r="D530" s="5" t="s">
         <v>1171</v>
       </c>
-      <c r="G530" s="4" t="s">
+      <c r="G530" s="6" t="s">
         <v>1105</v>
       </c>
-      <c r="N530" t="s">
+      <c r="N530" s="5" t="s">
         <v>1222</v>
       </c>
       <c r="O530" t="s">
         <v>1248</v>
       </c>
-      <c r="P530" t="s">
+      <c r="P530" s="5" t="s">
         <v>1230</v>
       </c>
-      <c r="Q530" t="s">
+      <c r="Q530" s="5" t="s">
         <v>1183</v>
       </c>
       <c r="R530" t="s">
@@ -12164,22 +12181,22 @@
       </c>
     </row>
     <row r="531" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D531" t="s">
+      <c r="D531" s="5" t="s">
         <v>1174</v>
       </c>
-      <c r="G531" s="4" t="s">
+      <c r="G531" s="6" t="s">
         <v>1107</v>
       </c>
-      <c r="N531" t="s">
+      <c r="N531" s="5" t="s">
         <v>1224</v>
       </c>
       <c r="O531" t="s">
         <v>1252</v>
       </c>
-      <c r="P531" t="s">
+      <c r="P531" s="5" t="s">
         <v>1232</v>
       </c>
-      <c r="Q531" t="s">
+      <c r="Q531" s="5" t="s">
         <v>1188</v>
       </c>
       <c r="R531" t="s">
@@ -12187,22 +12204,22 @@
       </c>
     </row>
     <row r="532" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D532" t="s">
+      <c r="D532" s="5" t="s">
         <v>1178</v>
       </c>
-      <c r="G532" s="4" t="s">
+      <c r="G532" s="6" t="s">
         <v>1110</v>
       </c>
-      <c r="N532" t="s">
+      <c r="N532" s="5" t="s">
         <v>1225</v>
       </c>
       <c r="O532" t="s">
         <v>1269</v>
       </c>
-      <c r="P532" t="s">
+      <c r="P532" s="5" t="s">
         <v>1234</v>
       </c>
-      <c r="Q532" t="s">
+      <c r="Q532" s="5" t="s">
         <v>1195</v>
       </c>
       <c r="R532" t="s">
@@ -12210,22 +12227,22 @@
       </c>
     </row>
     <row r="533" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D533" t="s">
+      <c r="D533" s="5" t="s">
         <v>1181</v>
       </c>
-      <c r="G533" s="4" t="s">
+      <c r="G533" s="6" t="s">
         <v>1111</v>
       </c>
-      <c r="N533" t="s">
+      <c r="N533" s="5" t="s">
         <v>778</v>
       </c>
       <c r="O533" t="s">
         <v>1280</v>
       </c>
-      <c r="P533" t="s">
+      <c r="P533" s="5" t="s">
         <v>1240</v>
       </c>
-      <c r="Q533" t="s">
+      <c r="Q533" s="5" t="s">
         <v>1201</v>
       </c>
       <c r="R533" t="s">
@@ -12233,22 +12250,22 @@
       </c>
     </row>
     <row r="534" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D534" t="s">
+      <c r="D534" s="5" t="s">
         <v>1185</v>
       </c>
-      <c r="G534" s="4" t="s">
+      <c r="G534" s="6" t="s">
         <v>1116</v>
       </c>
-      <c r="N534" t="s">
+      <c r="N534" s="5" t="s">
         <v>1233</v>
       </c>
       <c r="O534" t="s">
         <v>1285</v>
       </c>
-      <c r="P534" t="s">
+      <c r="P534" s="5" t="s">
         <v>1244</v>
       </c>
-      <c r="Q534" t="s">
+      <c r="Q534" s="5" t="s">
         <v>1204</v>
       </c>
       <c r="R534" t="s">
@@ -12256,22 +12273,22 @@
       </c>
     </row>
     <row r="535" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D535" t="s">
+      <c r="D535" s="5" t="s">
         <v>1189</v>
       </c>
-      <c r="G535" s="4" t="s">
+      <c r="G535" s="6" t="s">
         <v>1119</v>
       </c>
-      <c r="N535" t="s">
+      <c r="N535" s="5" t="s">
         <v>1235</v>
       </c>
       <c r="O535" t="s">
         <v>1291</v>
       </c>
-      <c r="P535" t="s">
+      <c r="P535" s="5" t="s">
         <v>1245</v>
       </c>
-      <c r="Q535" t="s">
+      <c r="Q535" s="5" t="s">
         <v>1205</v>
       </c>
       <c r="R535" t="s">
@@ -12279,22 +12296,22 @@
       </c>
     </row>
     <row r="536" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D536" t="s">
+      <c r="D536" s="5" t="s">
         <v>1190</v>
       </c>
-      <c r="G536" s="4" t="s">
+      <c r="G536" s="6" t="s">
         <v>1125</v>
       </c>
-      <c r="N536" t="s">
+      <c r="N536" s="5" t="s">
         <v>1236</v>
       </c>
       <c r="O536" t="s">
         <v>1296</v>
       </c>
-      <c r="P536" t="s">
+      <c r="P536" s="5" t="s">
         <v>1246</v>
       </c>
-      <c r="Q536" t="s">
+      <c r="Q536" s="5" t="s">
         <v>1158</v>
       </c>
       <c r="R536" t="s">
@@ -12302,22 +12319,22 @@
       </c>
     </row>
     <row r="537" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D537" t="s">
+      <c r="D537" s="5" t="s">
         <v>1199</v>
       </c>
-      <c r="G537" s="4" t="s">
+      <c r="G537" s="6" t="s">
         <v>1129</v>
       </c>
-      <c r="N537" t="s">
+      <c r="N537" s="5" t="s">
         <v>1238</v>
       </c>
       <c r="O537" t="s">
         <v>1297</v>
       </c>
-      <c r="P537" t="s">
+      <c r="P537" s="5" t="s">
         <v>1247</v>
       </c>
-      <c r="Q537" t="s">
+      <c r="Q537" s="5" t="s">
         <v>1210</v>
       </c>
       <c r="R537" t="s">
@@ -12325,22 +12342,22 @@
       </c>
     </row>
     <row r="538" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D538" t="s">
+      <c r="D538" s="5" t="s">
         <v>1200</v>
       </c>
-      <c r="G538" s="4" t="s">
+      <c r="G538" s="6" t="s">
         <v>1137</v>
       </c>
-      <c r="N538" t="s">
+      <c r="N538" s="5" t="s">
         <v>1241</v>
       </c>
       <c r="O538" t="s">
         <v>1302</v>
       </c>
-      <c r="P538" t="s">
+      <c r="P538" s="5" t="s">
         <v>1251</v>
       </c>
-      <c r="Q538" t="s">
+      <c r="Q538" s="5" t="s">
         <v>262</v>
       </c>
       <c r="R538" t="s">
@@ -12348,22 +12365,22 @@
       </c>
     </row>
     <row r="539" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D539" t="s">
+      <c r="D539" s="5" t="s">
         <v>1202</v>
       </c>
-      <c r="G539" s="4" t="s">
+      <c r="G539" s="6" t="s">
         <v>1141</v>
       </c>
-      <c r="N539" t="s">
+      <c r="N539" s="5" t="s">
         <v>1242</v>
       </c>
       <c r="O539" t="s">
         <v>1305</v>
       </c>
-      <c r="P539" t="s">
+      <c r="P539" s="5" t="s">
         <v>1261</v>
       </c>
-      <c r="Q539" t="s">
+      <c r="Q539" s="5" t="s">
         <v>1216</v>
       </c>
       <c r="R539" t="s">
@@ -12371,22 +12388,22 @@
       </c>
     </row>
     <row r="540" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D540" t="s">
+      <c r="D540" s="5" t="s">
         <v>1206</v>
       </c>
-      <c r="G540" s="4" t="s">
+      <c r="G540" s="6" t="s">
         <v>1142</v>
       </c>
-      <c r="N540" t="s">
+      <c r="N540" s="5" t="s">
         <v>1243</v>
       </c>
       <c r="O540" t="s">
         <v>1307</v>
       </c>
-      <c r="P540" t="s">
+      <c r="P540" s="5" t="s">
         <v>1266</v>
       </c>
-      <c r="Q540" t="s">
+      <c r="Q540" s="5" t="s">
         <v>1217</v>
       </c>
       <c r="R540" t="s">
@@ -12394,22 +12411,22 @@
       </c>
     </row>
     <row r="541" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D541" t="s">
+      <c r="D541" s="5" t="s">
         <v>1209</v>
       </c>
-      <c r="G541" s="4" t="s">
+      <c r="G541" s="6" t="s">
         <v>1148</v>
       </c>
-      <c r="N541" t="s">
+      <c r="N541" s="5" t="s">
         <v>1250</v>
       </c>
       <c r="O541" t="s">
         <v>153</v>
       </c>
-      <c r="P541" t="s">
+      <c r="P541" s="5" t="s">
         <v>1273</v>
       </c>
-      <c r="Q541" t="s">
+      <c r="Q541" s="5" t="s">
         <v>1218</v>
       </c>
       <c r="R541" t="s">
@@ -12417,22 +12434,22 @@
       </c>
     </row>
     <row r="542" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D542" t="s">
+      <c r="D542" s="5" t="s">
         <v>1211</v>
       </c>
-      <c r="G542" s="4" t="s">
+      <c r="G542" s="6" t="s">
         <v>1127</v>
       </c>
-      <c r="N542" t="s">
+      <c r="N542" s="5" t="s">
         <v>1253</v>
       </c>
       <c r="O542" t="s">
         <v>1318</v>
       </c>
-      <c r="P542" t="s">
+      <c r="P542" s="5" t="s">
         <v>1278</v>
       </c>
-      <c r="Q542" t="s">
+      <c r="Q542" s="5" t="s">
         <v>1223</v>
       </c>
       <c r="R542" t="s">
@@ -12440,19 +12457,19 @@
       </c>
     </row>
     <row r="543" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D543" t="s">
+      <c r="D543" s="5" t="s">
         <v>1212</v>
       </c>
-      <c r="N543" t="s">
+      <c r="N543" s="5" t="s">
         <v>1254</v>
       </c>
       <c r="O543" t="s">
         <v>1324</v>
       </c>
-      <c r="P543" t="s">
+      <c r="P543" s="5" t="s">
         <v>1279</v>
       </c>
-      <c r="Q543" t="s">
+      <c r="Q543" s="5" t="s">
         <v>1231</v>
       </c>
       <c r="R543" t="s">
@@ -12460,19 +12477,19 @@
       </c>
     </row>
     <row r="544" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D544" t="s">
+      <c r="D544" s="5" t="s">
         <v>1214</v>
       </c>
-      <c r="N544" t="s">
+      <c r="N544" s="5" t="s">
         <v>1255</v>
       </c>
       <c r="O544" t="s">
         <v>1331</v>
       </c>
-      <c r="P544" t="s">
+      <c r="P544" s="5" t="s">
         <v>1281</v>
       </c>
-      <c r="Q544" t="s">
+      <c r="Q544" s="5" t="s">
         <v>1237</v>
       </c>
       <c r="R544" t="s">
@@ -12480,1732 +12497,1735 @@
       </c>
     </row>
     <row r="545" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D545" t="s">
+      <c r="D545" s="5" t="s">
         <v>1215</v>
       </c>
-      <c r="N545" t="s">
+      <c r="N545" s="5" t="s">
         <v>1257</v>
       </c>
       <c r="O545" t="s">
         <v>1333</v>
       </c>
-      <c r="P545" t="s">
+      <c r="P545" s="5" t="s">
         <v>1282</v>
       </c>
-      <c r="Q545" t="s">
+      <c r="Q545" s="5" t="s">
         <v>1239</v>
       </c>
     </row>
     <row r="546" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="N546" t="s">
+      <c r="N546" s="5" t="s">
         <v>1259</v>
       </c>
       <c r="O546" t="s">
         <v>1342</v>
       </c>
-      <c r="P546" t="s">
+      <c r="P546" s="5" t="s">
         <v>1283</v>
       </c>
-      <c r="Q546" t="s">
+      <c r="Q546" s="5" t="s">
         <v>1249</v>
       </c>
     </row>
     <row r="547" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="N547" t="s">
+      <c r="N547" s="5" t="s">
         <v>1260</v>
       </c>
       <c r="O547" t="s">
         <v>75</v>
       </c>
-      <c r="P547" t="s">
+      <c r="P547" s="5" t="s">
         <v>1288</v>
       </c>
-      <c r="Q547" t="s">
+      <c r="Q547" s="5" t="s">
         <v>1256</v>
       </c>
     </row>
     <row r="548" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="N548" t="s">
+      <c r="N548" s="5" t="s">
         <v>1262</v>
       </c>
       <c r="O548" t="s">
         <v>1344</v>
       </c>
-      <c r="P548" t="s">
+      <c r="P548" s="5" t="s">
         <v>1292</v>
       </c>
-      <c r="Q548" t="s">
+      <c r="Q548" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="549" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="N549" t="s">
+      <c r="N549" s="5" t="s">
         <v>1264</v>
       </c>
       <c r="O549" t="s">
         <v>1348</v>
       </c>
-      <c r="P549" t="s">
+      <c r="P549" s="5" t="s">
         <v>1293</v>
       </c>
-      <c r="Q549" t="s">
+      <c r="Q549" s="5" t="s">
         <v>1258</v>
       </c>
     </row>
     <row r="550" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="N550" t="s">
+      <c r="N550" s="5" t="s">
         <v>1265</v>
       </c>
-      <c r="P550" t="s">
+      <c r="P550" s="5" t="s">
         <v>1301</v>
       </c>
-      <c r="Q550" t="s">
+      <c r="Q550" s="5" t="s">
         <v>1263</v>
       </c>
     </row>
     <row r="551" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="N551" t="s">
+      <c r="N551" s="5" t="s">
         <v>1267</v>
       </c>
       <c r="O551" t="s">
         <v>1353</v>
       </c>
-      <c r="P551" t="s">
+      <c r="P551" s="5" t="s">
         <v>1304</v>
       </c>
-      <c r="Q551" t="s">
+      <c r="Q551" s="5" t="s">
         <v>1268</v>
       </c>
     </row>
     <row r="552" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="N552" t="s">
+      <c r="N552" s="5" t="s">
         <v>1270</v>
       </c>
       <c r="O552" t="s">
         <v>1369</v>
       </c>
-      <c r="P552" t="s">
+      <c r="P552" s="5" t="s">
         <v>1306</v>
       </c>
-      <c r="Q552" t="s">
+      <c r="Q552" s="5" t="s">
         <v>1289</v>
       </c>
     </row>
     <row r="553" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="N553" t="s">
+      <c r="N553" s="5" t="s">
         <v>1271</v>
       </c>
       <c r="O553" t="s">
         <v>1377</v>
       </c>
-      <c r="P553" t="s">
+      <c r="P553" s="5" t="s">
         <v>1308</v>
       </c>
-      <c r="Q553" t="s">
+      <c r="Q553" s="5" t="s">
         <v>1290</v>
       </c>
     </row>
     <row r="554" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="N554" t="s">
+      <c r="N554" s="5" t="s">
         <v>1272</v>
       </c>
       <c r="O554" t="s">
         <v>1382</v>
       </c>
-      <c r="P554" t="s">
+      <c r="P554" s="5" t="s">
         <v>1316</v>
       </c>
-      <c r="Q554" t="s">
+      <c r="Q554" s="5" t="s">
         <v>1298</v>
       </c>
     </row>
     <row r="555" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="N555" t="s">
+      <c r="N555" s="5" t="s">
         <v>1274</v>
       </c>
       <c r="O555" t="s">
         <v>1384</v>
       </c>
-      <c r="P555" t="s">
+      <c r="P555" s="5" t="s">
         <v>1321</v>
       </c>
-      <c r="Q555" t="s">
+      <c r="Q555" s="5" t="s">
         <v>1299</v>
       </c>
     </row>
     <row r="556" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="N556" t="s">
+      <c r="N556" s="5" t="s">
         <v>1275</v>
       </c>
       <c r="O556" t="s">
         <v>1391</v>
       </c>
-      <c r="P556" t="s">
+      <c r="P556" s="5" t="s">
         <v>1335</v>
       </c>
-      <c r="Q556" t="s">
+      <c r="Q556" s="5" t="s">
         <v>1300</v>
       </c>
     </row>
     <row r="557" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="N557" t="s">
+      <c r="N557" s="5" t="s">
         <v>1276</v>
       </c>
       <c r="O557" t="s">
         <v>1394</v>
       </c>
-      <c r="P557" t="s">
+      <c r="P557" s="5" t="s">
         <v>1338</v>
       </c>
-      <c r="Q557" t="s">
+      <c r="Q557" s="5" t="s">
         <v>1311</v>
       </c>
     </row>
     <row r="558" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="N558" t="s">
+      <c r="N558" s="5" t="s">
         <v>1277</v>
       </c>
       <c r="O558" t="s">
         <v>1398</v>
       </c>
-      <c r="P558" t="s">
+      <c r="P558" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="Q558" t="s">
+      <c r="Q558" s="5" t="s">
         <v>1313</v>
       </c>
     </row>
     <row r="559" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="N559" t="s">
+      <c r="N559" s="5" t="s">
         <v>1284</v>
       </c>
       <c r="O559" t="s">
         <v>1401</v>
       </c>
-      <c r="P559" t="s">
+      <c r="P559" s="5" t="s">
         <v>1339</v>
       </c>
-      <c r="Q559" t="s">
+      <c r="Q559" s="5" t="s">
         <v>1315</v>
       </c>
     </row>
     <row r="560" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="N560" t="s">
+      <c r="N560" s="5" t="s">
         <v>1286</v>
       </c>
       <c r="O560" t="s">
         <v>1407</v>
       </c>
-      <c r="P560" t="s">
+      <c r="P560" s="5" t="s">
         <v>1343</v>
       </c>
-      <c r="Q560" t="s">
+      <c r="Q560" s="5" t="s">
         <v>1317</v>
       </c>
     </row>
     <row r="561" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N561" t="s">
+      <c r="N561" s="5" t="s">
         <v>1287</v>
       </c>
       <c r="O561" t="s">
         <v>1522</v>
       </c>
-      <c r="P561" t="s">
+      <c r="P561" s="5" t="s">
         <v>1356</v>
       </c>
-      <c r="Q561" t="s">
+      <c r="Q561" s="5" t="s">
         <v>1319</v>
       </c>
     </row>
     <row r="562" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N562" t="s">
+      <c r="N562" s="5" t="s">
         <v>1294</v>
       </c>
       <c r="O562" t="s">
         <v>1423</v>
       </c>
-      <c r="P562" t="s">
+      <c r="P562" s="5" t="s">
         <v>1360</v>
       </c>
-      <c r="Q562" t="s">
+      <c r="Q562" s="5" t="s">
         <v>1323</v>
       </c>
     </row>
     <row r="563" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N563" t="s">
+      <c r="N563" s="5" t="s">
         <v>1295</v>
       </c>
       <c r="O563" t="s">
         <v>1425</v>
       </c>
-      <c r="P563" t="s">
+      <c r="P563" s="5" t="s">
         <v>1366</v>
       </c>
-      <c r="Q563" t="s">
+      <c r="Q563" s="5" t="s">
         <v>1326</v>
       </c>
     </row>
     <row r="564" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N564" t="s">
+      <c r="N564" s="5" t="s">
         <v>1303</v>
       </c>
       <c r="O564" t="s">
         <v>1433</v>
       </c>
-      <c r="P564" t="s">
+      <c r="P564" s="5" t="s">
         <v>1371</v>
       </c>
-      <c r="Q564" t="s">
+      <c r="Q564" s="5" t="s">
         <v>1329</v>
       </c>
     </row>
     <row r="565" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N565" t="s">
+      <c r="N565" s="5" t="s">
         <v>1309</v>
       </c>
       <c r="O565" t="s">
         <v>1434</v>
       </c>
-      <c r="P565" t="s">
+      <c r="P565" s="5" t="s">
         <v>1380</v>
       </c>
-      <c r="Q565" t="s">
+      <c r="Q565" s="5" t="s">
         <v>1334</v>
       </c>
     </row>
     <row r="566" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N566" t="s">
+      <c r="N566" s="5" t="s">
         <v>1310</v>
       </c>
       <c r="O566" t="s">
         <v>1436</v>
       </c>
-      <c r="P566" t="s">
+      <c r="P566" s="5" t="s">
         <v>1381</v>
       </c>
-      <c r="Q566" t="s">
+      <c r="Q566" s="5" t="s">
         <v>1337</v>
       </c>
     </row>
     <row r="567" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N567" t="s">
+      <c r="N567" s="5" t="s">
         <v>1312</v>
       </c>
       <c r="O567" t="s">
         <v>1448</v>
       </c>
-      <c r="P567" t="s">
+      <c r="P567" s="5" t="s">
         <v>1383</v>
       </c>
-      <c r="Q567" t="s">
+      <c r="Q567" s="5" t="s">
         <v>1340</v>
       </c>
     </row>
     <row r="568" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N568" t="s">
+      <c r="N568" s="5" t="s">
         <v>1314</v>
       </c>
       <c r="O568" t="s">
         <v>1451</v>
       </c>
-      <c r="P568" t="s">
+      <c r="P568" s="5" t="s">
         <v>1385</v>
       </c>
-      <c r="Q568" t="s">
+      <c r="Q568" s="5" t="s">
         <v>1346</v>
       </c>
     </row>
     <row r="569" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N569" t="s">
+      <c r="N569" s="5" t="s">
         <v>227</v>
       </c>
       <c r="O569" t="s">
         <v>1452</v>
       </c>
-      <c r="P569" t="s">
+      <c r="P569" s="5" t="s">
         <v>1388</v>
       </c>
-      <c r="Q569" t="s">
+      <c r="Q569" s="5" t="s">
         <v>1355</v>
       </c>
     </row>
     <row r="570" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N570" t="s">
+      <c r="N570" s="5" t="s">
         <v>1320</v>
       </c>
       <c r="O570" t="s">
         <v>1453</v>
       </c>
-      <c r="P570" t="s">
+      <c r="P570" s="5" t="s">
         <v>1395</v>
       </c>
-      <c r="Q570" t="s">
+      <c r="Q570" s="5" t="s">
         <v>1364</v>
       </c>
     </row>
     <row r="571" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N571" t="s">
+      <c r="N571" s="5" t="s">
         <v>1325</v>
       </c>
       <c r="O571" t="s">
         <v>1454</v>
       </c>
-      <c r="P571" t="s">
+      <c r="P571" s="5" t="s">
         <v>1396</v>
       </c>
-      <c r="Q571" t="s">
+      <c r="Q571" s="5" t="s">
         <v>1386</v>
       </c>
     </row>
     <row r="572" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N572" t="s">
+      <c r="N572" s="5" t="s">
         <v>1327</v>
       </c>
       <c r="O572" t="s">
         <v>1461</v>
       </c>
-      <c r="P572" t="s">
+      <c r="P572" s="5" t="s">
         <v>1399</v>
       </c>
-      <c r="Q572" t="s">
+      <c r="Q572" s="5" t="s">
         <v>1393</v>
       </c>
     </row>
     <row r="573" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N573" t="s">
+      <c r="N573" s="5" t="s">
         <v>1330</v>
       </c>
       <c r="O573" t="s">
         <v>1463</v>
       </c>
-      <c r="P573" t="s">
+      <c r="P573" s="5" t="s">
         <v>1402</v>
       </c>
-      <c r="Q573" t="s">
+      <c r="Q573" s="5" t="s">
         <v>1400</v>
       </c>
     </row>
     <row r="574" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N574" t="s">
+      <c r="N574" s="5" t="s">
         <v>1332</v>
       </c>
       <c r="O574" t="s">
         <v>1471</v>
       </c>
-      <c r="P574" t="s">
+      <c r="P574" s="5" t="s">
         <v>1404</v>
       </c>
-      <c r="Q574" t="s">
+      <c r="Q574" s="5" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="575" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N575" t="s">
+      <c r="N575" s="5" t="s">
         <v>1336</v>
       </c>
       <c r="O575" t="s">
         <v>1478</v>
       </c>
-      <c r="P575" t="s">
+      <c r="P575" s="5" t="s">
         <v>1411</v>
       </c>
-      <c r="Q575" t="s">
+      <c r="Q575" s="5" t="s">
         <v>1220</v>
       </c>
     </row>
     <row r="576" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N576" t="s">
+      <c r="N576" s="5" t="s">
         <v>1270</v>
       </c>
       <c r="O576" t="s">
         <v>1481</v>
       </c>
-      <c r="P576" t="s">
+      <c r="P576" s="5" t="s">
         <v>1418</v>
       </c>
-      <c r="Q576" t="s">
+      <c r="Q576" s="5" t="s">
         <v>1428</v>
       </c>
     </row>
     <row r="577" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N577" t="s">
+      <c r="N577" s="5" t="s">
         <v>1341</v>
       </c>
       <c r="O577" t="s">
         <v>1482</v>
       </c>
-      <c r="P577" t="s">
+      <c r="P577" s="5" t="s">
         <v>1427</v>
       </c>
-      <c r="Q577" t="s">
+      <c r="Q577" s="5" t="s">
         <v>1432</v>
       </c>
     </row>
     <row r="578" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N578" t="s">
+      <c r="N578" s="5" t="s">
         <v>1345</v>
       </c>
       <c r="O578" t="s">
         <v>1489</v>
       </c>
-      <c r="P578" t="s">
+      <c r="P578" s="5" t="s">
         <v>1430</v>
       </c>
-      <c r="Q578" t="s">
+      <c r="Q578" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="579" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N579" t="s">
+      <c r="N579" s="5" t="s">
         <v>1349</v>
       </c>
       <c r="O579" t="s">
         <v>1490</v>
       </c>
-      <c r="P579" t="s">
+      <c r="P579" s="5" t="s">
         <v>1431</v>
       </c>
-      <c r="Q579" t="s">
+      <c r="Q579" s="5" t="s">
         <v>1437</v>
       </c>
     </row>
     <row r="580" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N580" t="s">
+      <c r="N580" s="5" t="s">
         <v>1350</v>
       </c>
       <c r="O580" t="s">
         <v>1495</v>
       </c>
-      <c r="P580" t="s">
+      <c r="P580" s="5" t="s">
         <v>1445</v>
       </c>
-      <c r="Q580" t="s">
+      <c r="Q580" s="5" t="s">
         <v>1441</v>
       </c>
     </row>
     <row r="581" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N581" t="s">
+      <c r="N581" s="5" t="s">
         <v>1351</v>
       </c>
       <c r="O581" t="s">
         <v>1503</v>
       </c>
-      <c r="P581" t="s">
+      <c r="P581" s="5" t="s">
         <v>1447</v>
       </c>
-      <c r="Q581" t="s">
+      <c r="Q581" s="5" t="s">
         <v>1446</v>
       </c>
     </row>
     <row r="582" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N582" t="s">
+      <c r="N582" s="5" t="s">
         <v>1352</v>
       </c>
       <c r="O582" t="s">
         <v>1504</v>
       </c>
-      <c r="P582" t="s">
+      <c r="P582" s="5" t="s">
         <v>1450</v>
       </c>
-      <c r="Q582" t="s">
+      <c r="Q582" s="5" t="s">
         <v>1449</v>
       </c>
     </row>
     <row r="583" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N583" t="s">
+      <c r="N583" s="5" t="s">
         <v>1357</v>
       </c>
       <c r="O583" t="s">
         <v>1509</v>
       </c>
-      <c r="P583" t="s">
+      <c r="P583" s="5" t="s">
         <v>1457</v>
       </c>
-      <c r="Q583" t="s">
+      <c r="Q583" s="5" t="s">
         <v>1455</v>
       </c>
     </row>
     <row r="584" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N584" t="s">
+      <c r="N584" s="5" t="s">
         <v>1358</v>
       </c>
       <c r="O584" t="s">
         <v>1513</v>
       </c>
-      <c r="P584" t="s">
+      <c r="P584" s="5" t="s">
         <v>1458</v>
       </c>
-      <c r="Q584" t="s">
+      <c r="Q584" s="5" t="s">
         <v>1456</v>
       </c>
     </row>
     <row r="585" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N585" t="s">
+      <c r="N585" s="5" t="s">
         <v>1359</v>
       </c>
       <c r="O585" t="s">
         <v>1524</v>
       </c>
-      <c r="P585" t="s">
+      <c r="P585" s="5" t="s">
         <v>1462</v>
       </c>
-      <c r="Q585" t="s">
+      <c r="Q585" s="5" t="s">
         <v>1460</v>
       </c>
     </row>
     <row r="586" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N586" t="s">
+      <c r="N586" s="5" t="s">
         <v>1362</v>
       </c>
       <c r="O586" t="s">
         <v>1527</v>
       </c>
-      <c r="P586" t="s">
+      <c r="P586" s="5" t="s">
         <v>1466</v>
       </c>
-      <c r="Q586" t="s">
+      <c r="Q586" s="5" t="s">
         <v>1464</v>
       </c>
     </row>
     <row r="587" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N587" t="s">
+      <c r="N587" s="5" t="s">
         <v>1363</v>
       </c>
       <c r="O587" t="s">
         <v>1528</v>
       </c>
-      <c r="P587" t="s">
+      <c r="P587" s="5" t="s">
         <v>1467</v>
       </c>
-      <c r="Q587" t="s">
+      <c r="Q587" s="5" t="s">
         <v>1465</v>
       </c>
     </row>
     <row r="588" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N588" t="s">
+      <c r="N588" s="5" t="s">
         <v>1365</v>
       </c>
       <c r="O588" t="s">
         <v>1529</v>
       </c>
-      <c r="P588" t="s">
+      <c r="P588" s="5" t="s">
         <v>1468</v>
       </c>
-      <c r="Q588" t="s">
+      <c r="Q588" s="5" t="s">
         <v>1475</v>
       </c>
     </row>
     <row r="589" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N589" t="s">
+      <c r="N589" s="5" t="s">
         <v>1367</v>
       </c>
       <c r="O589" t="s">
         <v>1530</v>
       </c>
-      <c r="P589" t="s">
+      <c r="P589" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="Q589" t="s">
+      <c r="Q589" s="5" t="s">
         <v>1476</v>
       </c>
     </row>
     <row r="590" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N590" t="s">
+      <c r="N590" s="5" t="s">
         <v>1368</v>
       </c>
       <c r="O590" t="s">
         <v>1534</v>
       </c>
-      <c r="P590" t="s">
+      <c r="P590" s="5" t="s">
         <v>1485</v>
       </c>
-      <c r="Q590" t="s">
+      <c r="Q590" s="5" t="s">
         <v>1486</v>
       </c>
     </row>
     <row r="591" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N591" t="s">
+      <c r="N591" s="5" t="s">
         <v>1136</v>
       </c>
       <c r="O591" t="s">
         <v>1536</v>
       </c>
-      <c r="P591" t="s">
+      <c r="P591" s="5" t="s">
         <v>1500</v>
       </c>
-      <c r="Q591" t="s">
+      <c r="Q591" s="5" t="s">
         <v>1488</v>
       </c>
     </row>
     <row r="592" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N592" t="s">
+      <c r="N592" s="5" t="s">
         <v>1370</v>
       </c>
       <c r="O592" t="s">
         <v>1537</v>
       </c>
-      <c r="P592" t="s">
+      <c r="P592" s="5" t="s">
         <v>1505</v>
       </c>
-      <c r="Q592" t="s">
+      <c r="Q592" s="5" t="s">
         <v>1491</v>
       </c>
     </row>
     <row r="593" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N593" t="s">
+      <c r="N593" s="5" t="s">
         <v>1373</v>
       </c>
       <c r="O593" t="s">
         <v>1539</v>
       </c>
-      <c r="P593" t="s">
+      <c r="P593" s="5" t="s">
         <v>1506</v>
       </c>
-      <c r="Q593" t="s">
+      <c r="Q593" s="5" t="s">
         <v>1492</v>
       </c>
     </row>
     <row r="594" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N594" t="s">
+      <c r="N594" s="5" t="s">
         <v>1374</v>
       </c>
       <c r="O594" t="s">
         <v>1549</v>
       </c>
-      <c r="P594" t="s">
+      <c r="P594" s="5" t="s">
         <v>1514</v>
       </c>
-      <c r="Q594" t="s">
+      <c r="Q594" s="5" t="s">
         <v>1496</v>
       </c>
     </row>
     <row r="595" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N595" t="s">
+      <c r="N595" s="5" t="s">
         <v>1375</v>
       </c>
       <c r="O595" t="s">
         <v>1556</v>
       </c>
-      <c r="P595" t="s">
+      <c r="P595" s="5" t="s">
         <v>1544</v>
       </c>
-      <c r="Q595" t="s">
+      <c r="Q595" s="5" t="s">
         <v>1497</v>
       </c>
     </row>
     <row r="596" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N596" t="s">
+      <c r="N596" s="5" t="s">
         <v>1376</v>
       </c>
       <c r="O596" t="s">
         <v>1558</v>
       </c>
-      <c r="P596" t="s">
+      <c r="P596" s="5" t="s">
         <v>1545</v>
       </c>
-      <c r="Q596" t="s">
+      <c r="Q596" s="5" t="s">
         <v>1498</v>
       </c>
     </row>
     <row r="597" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N597" t="s">
+      <c r="N597" s="5" t="s">
         <v>1378</v>
       </c>
       <c r="O597" t="s">
         <v>1559</v>
       </c>
-      <c r="P597" t="s">
+      <c r="P597" s="5" t="s">
         <v>1551</v>
       </c>
-      <c r="Q597" t="s">
+      <c r="Q597" s="5" t="s">
         <v>1500</v>
       </c>
     </row>
     <row r="598" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N598" t="s">
+      <c r="N598" s="5" t="s">
         <v>1379</v>
       </c>
       <c r="O598" t="s">
         <v>1562</v>
       </c>
-      <c r="P598" t="s">
+      <c r="P598" s="5" t="s">
         <v>1552</v>
       </c>
-      <c r="Q598" t="s">
+      <c r="Q598" s="5" t="s">
         <v>1501</v>
       </c>
     </row>
     <row r="599" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N599" t="s">
+      <c r="N599" s="5" t="s">
         <v>1387</v>
       </c>
       <c r="O599" t="s">
         <v>1567</v>
       </c>
-      <c r="P599" t="s">
+      <c r="P599" s="5" t="s">
         <v>1553</v>
       </c>
-      <c r="Q599" t="s">
+      <c r="Q599" s="5" t="s">
         <v>1511</v>
       </c>
     </row>
     <row r="600" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N600" t="s">
+      <c r="N600" s="5" t="s">
         <v>1390</v>
       </c>
       <c r="O600" t="s">
         <v>1570</v>
       </c>
-      <c r="P600" t="s">
+      <c r="P600" s="5" t="s">
         <v>1555</v>
       </c>
-      <c r="Q600" t="s">
+      <c r="Q600" s="5" t="s">
         <v>1512</v>
       </c>
     </row>
     <row r="601" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N601" t="s">
+      <c r="N601" s="5" t="s">
         <v>1392</v>
       </c>
       <c r="O601" t="s">
         <v>263</v>
       </c>
-      <c r="P601" t="s">
+      <c r="P601" s="5" t="s">
         <v>1561</v>
       </c>
-      <c r="Q601" t="s">
+      <c r="Q601" s="5" t="s">
         <v>1516</v>
       </c>
     </row>
     <row r="602" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N602" t="s">
+      <c r="N602" s="5" t="s">
         <v>1397</v>
       </c>
       <c r="O602" t="s">
         <v>1574</v>
       </c>
-      <c r="P602" t="s">
+      <c r="P602" s="5" t="s">
         <v>1578</v>
       </c>
-      <c r="Q602" t="s">
+      <c r="Q602" s="5" t="s">
         <v>1518</v>
       </c>
     </row>
     <row r="603" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N603" t="s">
+      <c r="N603" s="5" t="s">
         <v>1403</v>
       </c>
       <c r="O603" t="s">
         <v>1591</v>
       </c>
-      <c r="P603" t="s">
+      <c r="P603" s="5" t="s">
         <v>1573</v>
       </c>
-      <c r="Q603" t="s">
+      <c r="Q603" s="5" t="s">
         <v>1519</v>
       </c>
     </row>
     <row r="604" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N604" t="s">
+      <c r="N604" s="5" t="s">
         <v>1405</v>
       </c>
       <c r="O604" t="s">
         <v>1597</v>
       </c>
-      <c r="P604" t="s">
+      <c r="P604" s="5" t="s">
         <v>1579</v>
       </c>
-      <c r="Q604" t="s">
+      <c r="Q604" s="5" t="s">
         <v>1520</v>
       </c>
     </row>
     <row r="605" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N605" t="s">
+      <c r="N605" s="5" t="s">
         <v>1408</v>
       </c>
       <c r="O605" t="s">
         <v>1599</v>
       </c>
-      <c r="P605" t="s">
+      <c r="P605" s="5" t="s">
         <v>1580</v>
       </c>
-      <c r="Q605" t="s">
+      <c r="Q605" s="5" t="s">
         <v>1523</v>
       </c>
     </row>
     <row r="606" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N606" t="s">
+      <c r="N606" s="5" t="s">
         <v>1409</v>
       </c>
       <c r="O606" t="s">
         <v>1602</v>
       </c>
-      <c r="P606" t="s">
+      <c r="P606" s="5" t="s">
         <v>1583</v>
       </c>
-      <c r="Q606" t="s">
+      <c r="Q606" s="5" t="s">
         <v>1526</v>
       </c>
     </row>
     <row r="607" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N607" t="s">
+      <c r="N607" s="5" t="s">
         <v>1410</v>
       </c>
       <c r="O607" t="s">
         <v>1621</v>
       </c>
-      <c r="P607" t="s">
+      <c r="P607" s="5" t="s">
         <v>1584</v>
       </c>
-      <c r="Q607" t="s">
+      <c r="Q607" s="5" t="s">
         <v>1531</v>
       </c>
     </row>
     <row r="608" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N608" t="s">
+      <c r="N608" s="5" t="s">
         <v>1412</v>
       </c>
       <c r="O608" t="s">
         <v>1615</v>
       </c>
-      <c r="P608" t="s">
+      <c r="P608" s="5" t="s">
         <v>1605</v>
       </c>
-      <c r="Q608" t="s">
+      <c r="Q608" s="5" t="s">
         <v>1532</v>
       </c>
     </row>
     <row r="609" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N609" t="s">
+      <c r="N609" s="5" t="s">
         <v>1413</v>
       </c>
       <c r="O609" t="s">
         <v>1627</v>
       </c>
-      <c r="P609" t="s">
+      <c r="P609" s="5" t="s">
         <v>1606</v>
       </c>
-      <c r="Q609" t="s">
+      <c r="Q609" s="5" t="s">
         <v>1533</v>
       </c>
     </row>
     <row r="610" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N610" t="s">
+      <c r="N610" s="5" t="s">
         <v>1415</v>
       </c>
       <c r="O610" t="s">
         <v>1628</v>
       </c>
-      <c r="P610" t="s">
+      <c r="P610" s="5" t="s">
         <v>1612</v>
       </c>
-      <c r="Q610" t="s">
+      <c r="Q610" s="5" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="611" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N611" t="s">
+      <c r="N611" s="5" t="s">
         <v>1416</v>
       </c>
       <c r="O611" t="s">
         <v>1630</v>
       </c>
-      <c r="P611" t="s">
+      <c r="P611" s="5" t="s">
         <v>1614</v>
       </c>
-      <c r="Q611" t="s">
+      <c r="Q611" s="5" t="s">
         <v>1546</v>
       </c>
     </row>
     <row r="612" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N612" t="s">
+      <c r="N612" s="5" t="s">
         <v>1417</v>
       </c>
       <c r="O612" t="s">
         <v>1631</v>
       </c>
-      <c r="P612" t="s">
+      <c r="P612" s="5" t="s">
         <v>1282</v>
       </c>
-      <c r="Q612" t="s">
+      <c r="Q612" s="5" t="s">
         <v>1548</v>
       </c>
     </row>
     <row r="613" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N613" t="s">
+      <c r="N613" s="5" t="s">
         <v>1421</v>
       </c>
       <c r="O613" t="s">
         <v>1635</v>
       </c>
-      <c r="P613" t="s">
+      <c r="P613" s="5" t="s">
         <v>1618</v>
       </c>
-      <c r="Q613" t="s">
+      <c r="Q613" s="5" t="s">
         <v>1550</v>
       </c>
     </row>
     <row r="614" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N614" t="s">
+      <c r="N614" s="5" t="s">
         <v>1422</v>
       </c>
       <c r="O614" t="s">
         <v>1636</v>
       </c>
-      <c r="P614" t="s">
+      <c r="P614" s="5" t="s">
         <v>1632</v>
       </c>
-      <c r="Q614" t="s">
+      <c r="Q614" s="5" t="s">
         <v>1554</v>
       </c>
     </row>
     <row r="615" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N615" t="s">
+      <c r="N615" s="5" t="s">
         <v>1424</v>
       </c>
       <c r="O615" t="s">
         <v>1638</v>
       </c>
-      <c r="P615" t="s">
+      <c r="P615" s="5" t="s">
         <v>1640</v>
       </c>
-      <c r="Q615" t="s">
+      <c r="Q615" s="5" t="s">
         <v>1568</v>
       </c>
     </row>
     <row r="616" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N616" t="s">
+      <c r="N616" s="5" t="s">
         <v>1426</v>
       </c>
       <c r="O616" t="s">
         <v>1643</v>
       </c>
-      <c r="P616" t="s">
+      <c r="P616" s="5" t="s">
         <v>1644</v>
       </c>
-      <c r="Q616" t="s">
+      <c r="Q616" s="5" t="s">
         <v>1571</v>
       </c>
     </row>
     <row r="617" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N617" t="s">
+      <c r="N617" s="5" t="s">
         <v>1429</v>
       </c>
       <c r="O617" t="s">
         <v>1646</v>
       </c>
-      <c r="P617" t="s">
+      <c r="P617" s="5" t="s">
         <v>1645</v>
       </c>
-      <c r="Q617" t="s">
+      <c r="Q617" s="5" t="s">
         <v>1572</v>
       </c>
     </row>
     <row r="618" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N618" t="s">
+      <c r="N618" s="5" t="s">
         <v>1435</v>
       </c>
       <c r="O618" t="s">
         <v>1647</v>
       </c>
-      <c r="P618" t="s">
+      <c r="P618" s="5" t="s">
         <v>1654</v>
       </c>
-      <c r="Q618" t="s">
+      <c r="Q618" s="5" t="s">
         <v>1577</v>
       </c>
     </row>
     <row r="619" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N619" t="s">
+      <c r="N619" s="5" t="s">
         <v>1438</v>
       </c>
       <c r="O619" t="s">
         <v>1652</v>
       </c>
-      <c r="P619" t="s">
+      <c r="P619" s="5" t="s">
         <v>1664</v>
       </c>
-      <c r="Q619" t="s">
+      <c r="Q619" s="5" t="s">
         <v>1589</v>
       </c>
     </row>
     <row r="620" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N620" t="s">
+      <c r="N620" s="5" t="s">
         <v>1440</v>
       </c>
       <c r="O620" t="s">
         <v>1655</v>
       </c>
-      <c r="P620" t="s">
+      <c r="P620" s="5" t="s">
         <v>1666</v>
       </c>
-      <c r="Q620" t="s">
+      <c r="Q620" s="5" t="s">
         <v>1590</v>
       </c>
     </row>
     <row r="621" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N621" t="s">
+      <c r="N621" s="5" t="s">
         <v>1443</v>
       </c>
       <c r="O621" t="s">
         <v>1657</v>
       </c>
-      <c r="P621" t="s">
+      <c r="P621" s="5" t="s">
         <v>1669</v>
       </c>
-      <c r="Q621" t="s">
+      <c r="Q621" s="5" t="s">
         <v>1592</v>
       </c>
     </row>
     <row r="622" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N622" t="s">
+      <c r="N622" s="5" t="s">
         <v>1444</v>
       </c>
       <c r="O622" t="s">
         <v>504</v>
       </c>
-      <c r="P622" t="s">
+      <c r="P622" s="5" t="s">
         <v>1670</v>
       </c>
-      <c r="Q622" t="s">
+      <c r="Q622" s="5" t="s">
         <v>1594</v>
       </c>
     </row>
     <row r="623" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N623" t="s">
+      <c r="N623" s="5" t="s">
         <v>1460</v>
       </c>
       <c r="O623" t="s">
         <v>1674</v>
       </c>
-      <c r="P623" t="s">
+      <c r="P623" s="5" t="s">
         <v>1681</v>
       </c>
-      <c r="Q623" t="s">
+      <c r="Q623" s="5" t="s">
         <v>1596</v>
       </c>
     </row>
     <row r="624" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N624" t="s">
+      <c r="N624" s="5" t="s">
         <v>1469</v>
       </c>
       <c r="O624" t="s">
         <v>1686</v>
       </c>
-      <c r="P624" t="s">
+      <c r="P624" s="5" t="s">
         <v>1689</v>
       </c>
-      <c r="Q624" t="s">
+      <c r="Q624" s="5" t="s">
         <v>1603</v>
       </c>
     </row>
     <row r="625" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N625" t="s">
+      <c r="N625" s="5" t="s">
         <v>1470</v>
       </c>
       <c r="O625" t="s">
         <v>1688</v>
       </c>
-      <c r="P625" t="s">
+      <c r="P625" s="5" t="s">
         <v>1692</v>
       </c>
-      <c r="Q625" t="s">
+      <c r="Q625" s="5" t="s">
         <v>1604</v>
       </c>
     </row>
     <row r="626" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N626" t="s">
+      <c r="N626" s="5" t="s">
         <v>1472</v>
       </c>
       <c r="O626" t="s">
         <v>328</v>
       </c>
-      <c r="P626" t="s">
+      <c r="P626" s="5" t="s">
         <v>1693</v>
       </c>
-      <c r="Q626" t="s">
+      <c r="Q626" s="5" t="s">
         <v>1607</v>
       </c>
     </row>
     <row r="627" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N627" t="s">
+      <c r="N627" s="5" t="s">
         <v>1473</v>
       </c>
       <c r="O627" t="s">
         <v>720</v>
       </c>
-      <c r="P627" t="s">
+      <c r="P627" s="5" t="s">
         <v>1694</v>
       </c>
-      <c r="Q627" t="s">
+      <c r="Q627" s="5" t="s">
         <v>1610</v>
       </c>
     </row>
     <row r="628" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N628" t="s">
+      <c r="N628" s="5" t="s">
         <v>1479</v>
       </c>
       <c r="O628" t="s">
         <v>1699</v>
       </c>
-      <c r="P628" t="s">
+      <c r="P628" s="5" t="s">
         <v>1698</v>
       </c>
-      <c r="Q628" t="s">
+      <c r="Q628" s="5" t="s">
         <v>1611</v>
       </c>
     </row>
     <row r="629" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N629" t="s">
+      <c r="N629" s="5" t="s">
         <v>1480</v>
       </c>
       <c r="O629" t="s">
         <v>1700</v>
       </c>
-      <c r="P629" t="s">
+      <c r="P629" s="5" t="s">
         <v>1704</v>
       </c>
-      <c r="Q629" t="s">
+      <c r="Q629" s="5" t="s">
         <v>1613</v>
       </c>
     </row>
     <row r="630" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N630" t="s">
+      <c r="N630" s="5" t="s">
         <v>1483</v>
       </c>
       <c r="O630" t="s">
         <v>1701</v>
       </c>
-      <c r="P630" t="s">
+      <c r="P630" s="5" t="s">
         <v>1714</v>
       </c>
-      <c r="Q630" t="s">
+      <c r="Q630" s="5" t="s">
         <v>1616</v>
       </c>
     </row>
     <row r="631" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N631" t="s">
+      <c r="N631" s="5" t="s">
         <v>1484</v>
       </c>
       <c r="O631" t="s">
         <v>1703</v>
       </c>
-      <c r="P631" t="s">
+      <c r="P631" s="5" t="s">
         <v>1715</v>
       </c>
-      <c r="Q631" t="s">
+      <c r="Q631" s="5" t="s">
         <v>1617</v>
       </c>
     </row>
     <row r="632" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N632" t="s">
+      <c r="N632" s="5" t="s">
         <v>1363</v>
       </c>
       <c r="O632" t="s">
         <v>1707</v>
       </c>
-      <c r="P632" t="s">
+      <c r="P632" s="5" t="s">
         <v>1721</v>
       </c>
-      <c r="Q632" t="s">
+      <c r="Q632" s="5" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="633" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N633" t="s">
+      <c r="N633" s="5" t="s">
         <v>1493</v>
       </c>
       <c r="O633" t="s">
         <v>1713</v>
       </c>
-      <c r="P633" t="s">
+      <c r="P633" s="5" t="s">
         <v>1724</v>
       </c>
-      <c r="Q633" t="s">
+      <c r="Q633" s="5" t="s">
         <v>1619</v>
       </c>
     </row>
     <row r="634" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N634" t="s">
+      <c r="N634" s="5" t="s">
         <v>1494</v>
       </c>
       <c r="O634" t="s">
         <v>1718</v>
       </c>
-      <c r="P634" t="s">
+      <c r="P634" s="5" t="s">
         <v>1731</v>
       </c>
-      <c r="Q634" t="s">
+      <c r="Q634" s="5" t="s">
         <v>1622</v>
       </c>
     </row>
     <row r="635" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N635" t="s">
+      <c r="N635" s="5" t="s">
         <v>1499</v>
       </c>
       <c r="O635" t="s">
         <v>1723</v>
       </c>
-      <c r="P635" t="s">
+      <c r="P635" s="5" t="s">
         <v>1737</v>
       </c>
-      <c r="Q635" t="s">
+      <c r="Q635" s="5" t="s">
         <v>1623</v>
       </c>
     </row>
     <row r="636" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N636" t="s">
+      <c r="N636" s="5" t="s">
         <v>1502</v>
       </c>
       <c r="O636" t="s">
         <v>1727</v>
       </c>
-      <c r="Q636" t="s">
+      <c r="Q636" s="5" t="s">
         <v>1628</v>
       </c>
     </row>
     <row r="637" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N637" t="s">
+      <c r="N637" s="5" t="s">
         <v>1508</v>
       </c>
       <c r="O637" t="s">
         <v>1732</v>
       </c>
-      <c r="Q637" t="s">
+      <c r="Q637" s="5" t="s">
         <v>1629</v>
       </c>
     </row>
     <row r="638" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N638" t="s">
+      <c r="N638" s="5" t="s">
         <v>1510</v>
       </c>
       <c r="O638" t="s">
         <v>1733</v>
       </c>
-      <c r="Q638" t="s">
+      <c r="Q638" s="5" t="s">
         <v>1633</v>
       </c>
     </row>
     <row r="639" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N639" t="s">
+      <c r="N639" s="5" t="s">
         <v>1515</v>
       </c>
       <c r="O639" t="s">
         <v>1736</v>
       </c>
-      <c r="Q639" t="s">
+      <c r="Q639" s="5" t="s">
         <v>1634</v>
       </c>
     </row>
     <row r="640" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N640" t="s">
+      <c r="N640" s="5" t="s">
         <v>1517</v>
       </c>
       <c r="O640" t="s">
         <v>1739</v>
       </c>
-      <c r="Q640" t="s">
+      <c r="Q640" s="5" t="s">
         <v>1639</v>
       </c>
     </row>
     <row r="641" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N641" t="s">
+      <c r="N641" s="5" t="s">
         <v>1094</v>
       </c>
-      <c r="Q641" t="s">
+      <c r="Q641" s="5" t="s">
         <v>1642</v>
       </c>
     </row>
     <row r="642" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N642" t="s">
+      <c r="N642" s="5" t="s">
         <v>1521</v>
       </c>
-      <c r="Q642" t="s">
+      <c r="Q642" s="5" t="s">
         <v>1648</v>
       </c>
     </row>
     <row r="643" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N643" t="s">
+      <c r="N643" s="5" t="s">
         <v>1525</v>
       </c>
-      <c r="Q643" t="s">
+      <c r="Q643" s="5" t="s">
         <v>1650</v>
       </c>
     </row>
     <row r="644" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N644" t="s">
+      <c r="N644" s="5" t="s">
         <v>1535</v>
       </c>
-      <c r="Q644" t="s">
+      <c r="Q644" s="5" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="645" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N645" t="s">
+      <c r="N645" s="5" t="s">
         <v>1538</v>
       </c>
-      <c r="Q645" t="s">
+      <c r="Q645" s="5" t="s">
         <v>1658</v>
       </c>
     </row>
     <row r="646" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N646" t="s">
+      <c r="N646" s="5" t="s">
         <v>1541</v>
       </c>
-      <c r="Q646" t="s">
+      <c r="Q646" s="5" t="s">
         <v>1660</v>
       </c>
     </row>
     <row r="647" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N647" t="s">
+      <c r="N647" s="5" t="s">
         <v>1543</v>
       </c>
-      <c r="Q647" t="s">
+      <c r="Q647" s="5" t="s">
         <v>1661</v>
       </c>
     </row>
     <row r="648" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N648" t="s">
+      <c r="N648" s="5" t="s">
         <v>1547</v>
       </c>
-      <c r="Q648" t="s">
+      <c r="Q648" s="5" t="s">
         <v>1662</v>
       </c>
     </row>
     <row r="649" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N649" t="s">
+      <c r="N649" s="5" t="s">
         <v>1557</v>
       </c>
-      <c r="Q649" t="s">
+      <c r="Q649" s="5" t="s">
         <v>1663</v>
       </c>
     </row>
     <row r="650" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N650" t="s">
+      <c r="N650" s="5" t="s">
         <v>1560</v>
       </c>
-      <c r="Q650" t="s">
+      <c r="Q650" s="5" t="s">
         <v>1665</v>
       </c>
       <c r="R650" s="4"/>
     </row>
     <row r="651" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N651" t="s">
+      <c r="N651" s="5" t="s">
         <v>1563</v>
       </c>
-      <c r="Q651" t="s">
+      <c r="Q651" s="5" t="s">
         <v>1667</v>
       </c>
     </row>
     <row r="652" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N652" t="s">
+      <c r="N652" s="5" t="s">
         <v>1564</v>
       </c>
-      <c r="Q652" t="s">
+      <c r="Q652" s="5" t="s">
         <v>1677</v>
       </c>
     </row>
     <row r="653" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N653" t="s">
+      <c r="N653" s="5" t="s">
         <v>1565</v>
       </c>
-      <c r="Q653" t="s">
+      <c r="Q653" s="5" t="s">
         <v>1680</v>
       </c>
     </row>
     <row r="654" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N654" t="s">
+      <c r="N654" s="5" t="s">
         <v>1566</v>
       </c>
-      <c r="Q654" t="s">
+      <c r="Q654" s="5" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="655" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N655" t="s">
+      <c r="N655" s="5" t="s">
         <v>1569</v>
       </c>
-      <c r="Q655" t="s">
+      <c r="Q655" s="5" t="s">
         <v>1685</v>
       </c>
     </row>
     <row r="656" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N656" t="s">
+      <c r="N656" s="5" t="s">
         <v>1575</v>
       </c>
-      <c r="Q656" t="s">
+      <c r="Q656" s="5" t="s">
         <v>1690</v>
       </c>
     </row>
     <row r="657" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N657" t="s">
+      <c r="N657" s="5" t="s">
         <v>1576</v>
       </c>
-      <c r="Q657" t="s">
+      <c r="Q657" s="5" t="s">
         <v>1691</v>
       </c>
     </row>
     <row r="658" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N658" t="s">
+      <c r="N658" s="5" t="s">
         <v>1581</v>
       </c>
-      <c r="Q658" t="s">
+      <c r="Q658" s="5" t="s">
         <v>1695</v>
       </c>
     </row>
     <row r="659" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N659" t="s">
+      <c r="N659" s="5" t="s">
         <v>1582</v>
       </c>
-      <c r="Q659" t="s">
+      <c r="Q659" s="5" t="s">
         <v>1696</v>
       </c>
     </row>
     <row r="660" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N660" t="s">
+      <c r="N660" s="5" t="s">
         <v>1585</v>
       </c>
-      <c r="Q660" t="s">
+      <c r="Q660" s="5" t="s">
         <v>1697</v>
       </c>
     </row>
     <row r="661" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N661" t="s">
+      <c r="N661" s="5" t="s">
         <v>1586</v>
       </c>
-      <c r="Q661" t="s">
+      <c r="Q661" s="5" t="s">
         <v>1702</v>
       </c>
     </row>
     <row r="662" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N662" t="s">
+      <c r="N662" s="5" t="s">
         <v>1588</v>
       </c>
-      <c r="Q662" t="s">
+      <c r="Q662" s="5" t="s">
         <v>1706</v>
       </c>
     </row>
     <row r="663" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N663" t="s">
+      <c r="N663" s="5" t="s">
         <v>1593</v>
       </c>
-      <c r="Q663" t="s">
+      <c r="Q663" s="5" t="s">
         <v>1708</v>
       </c>
     </row>
     <row r="664" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N664" t="s">
+      <c r="N664" s="5" t="s">
         <v>1595</v>
       </c>
-      <c r="Q664" t="s">
+      <c r="Q664" s="5" t="s">
         <v>1709</v>
       </c>
     </row>
     <row r="665" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N665" t="s">
+      <c r="N665" s="5" t="s">
         <v>1598</v>
       </c>
-      <c r="Q665" t="s">
+      <c r="Q665" s="5" t="s">
         <v>1710</v>
       </c>
     </row>
     <row r="666" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N666" t="s">
+      <c r="N666" s="5" t="s">
         <v>1600</v>
       </c>
-      <c r="Q666" t="s">
+      <c r="Q666" s="5" t="s">
         <v>1716</v>
       </c>
     </row>
     <row r="667" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N667" t="s">
+      <c r="N667" s="5" t="s">
         <v>1601</v>
       </c>
-      <c r="Q667" t="s">
+      <c r="Q667" s="5" t="s">
         <v>1717</v>
       </c>
     </row>
     <row r="668" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N668" t="s">
+      <c r="N668" s="5" t="s">
         <v>1608</v>
       </c>
-      <c r="Q668" t="s">
+      <c r="Q668" s="5" t="s">
         <v>1719</v>
       </c>
     </row>
     <row r="669" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N669" t="s">
+      <c r="N669" s="5" t="s">
         <v>1620</v>
       </c>
-      <c r="Q669" t="s">
+      <c r="Q669" s="5" t="s">
         <v>1720</v>
       </c>
     </row>
     <row r="670" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N670" t="s">
+      <c r="N670" s="5" t="s">
         <v>1624</v>
       </c>
-      <c r="Q670" t="s">
+      <c r="Q670" s="5" t="s">
         <v>1722</v>
       </c>
     </row>
     <row r="671" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N671" t="s">
+      <c r="N671" s="5" t="s">
         <v>1625</v>
       </c>
-      <c r="Q671" t="s">
+      <c r="Q671" s="5" t="s">
         <v>1464</v>
       </c>
     </row>
     <row r="672" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N672" t="s">
+      <c r="N672" s="5" t="s">
         <v>1626</v>
       </c>
-      <c r="Q672" t="s">
+      <c r="Q672" s="5" t="s">
         <v>1725</v>
       </c>
     </row>
     <row r="673" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="N673" t="s">
+      <c r="N673" s="5" t="s">
         <v>1637</v>
       </c>
-      <c r="Q673" t="s">
+      <c r="Q673" s="5" t="s">
         <v>1726</v>
       </c>
     </row>
     <row r="674" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="N674" t="s">
+      <c r="N674" s="5" t="s">
         <v>1641</v>
       </c>
-      <c r="Q674" t="s">
+      <c r="Q674" s="5" t="s">
         <v>1728</v>
       </c>
     </row>
     <row r="675" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="N675" t="s">
+      <c r="N675" s="5" t="s">
         <v>1651</v>
       </c>
-      <c r="Q675" t="s">
+      <c r="Q675" s="5" t="s">
         <v>1730</v>
       </c>
     </row>
     <row r="676" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="N676" t="s">
+      <c r="N676" s="5" t="s">
         <v>1603</v>
       </c>
-      <c r="Q676" t="s">
+      <c r="Q676" s="5" t="s">
         <v>1734</v>
       </c>
     </row>
     <row r="677" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E677" t="s">
-        <v>1744</v>
-      </c>
-      <c r="N677" t="s">
+        <v>1745</v>
+      </c>
+      <c r="N677" s="5" t="s">
         <v>1659</v>
       </c>
-      <c r="Q677" t="s">
+      <c r="Q677" s="5" t="s">
         <v>1464</v>
       </c>
     </row>
     <row r="678" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="N678" t="s">
+      <c r="E678" t="s">
+        <v>1746</v>
+      </c>
+      <c r="N678" s="5" t="s">
         <v>1668</v>
       </c>
-      <c r="Q678" t="s">
+      <c r="Q678" s="5" t="s">
         <v>1738</v>
       </c>
     </row>
     <row r="679" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="N679" t="s">
+      <c r="N679" s="5" t="s">
         <v>1671</v>
       </c>
-      <c r="Q679" t="s">
+      <c r="Q679" s="5" t="s">
         <v>1742</v>
       </c>
     </row>
     <row r="680" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="N680" t="s">
+      <c r="N680" s="5" t="s">
         <v>1672</v>
       </c>
     </row>
     <row r="681" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="N681" t="s">
+      <c r="N681" s="5" t="s">
         <v>1673</v>
       </c>
     </row>
     <row r="682" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="N682" t="s">
+      <c r="N682" s="5" t="s">
         <v>1675</v>
       </c>
     </row>
     <row r="683" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="N683" t="s">
+      <c r="N683" s="5" t="s">
         <v>1676</v>
       </c>
     </row>
     <row r="684" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="N684" t="s">
+      <c r="N684" s="5" t="s">
         <v>1678</v>
       </c>
     </row>
     <row r="685" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="N685" t="s">
+      <c r="N685" s="5" t="s">
         <v>1679</v>
       </c>
     </row>
     <row r="686" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="N686" t="s">
+      <c r="N686" s="5" t="s">
         <v>1682</v>
       </c>
     </row>
     <row r="687" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="N687" t="s">
+      <c r="N687" s="5" t="s">
         <v>1683</v>
       </c>
     </row>
     <row r="688" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="N688" t="s">
+      <c r="N688" s="5" t="s">
         <v>1684</v>
       </c>
     </row>
     <row r="689" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N689" t="s">
+      <c r="N689" s="5" t="s">
         <v>1705</v>
       </c>
     </row>
     <row r="690" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N690" t="s">
+      <c r="N690" s="5" t="s">
         <v>1711</v>
       </c>
     </row>
     <row r="691" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N691" t="s">
+      <c r="N691" s="5" t="s">
         <v>1712</v>
       </c>
     </row>
     <row r="692" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N692" t="s">
+      <c r="N692" s="5" t="s">
         <v>1729</v>
       </c>
     </row>
     <row r="693" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N693" t="s">
+      <c r="N693" s="5" t="s">
         <v>1735</v>
       </c>
     </row>
     <row r="694" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N694" t="s">
+      <c r="N694" s="5" t="s">
         <v>1740</v>
       </c>
     </row>
     <row r="695" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N695" t="s">
+      <c r="N695" s="5" t="s">
         <v>1741</v>
       </c>
     </row>
     <row r="696" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N696" t="s">
+      <c r="N696" s="5" t="s">
         <v>1743</v>
       </c>
     </row>
